--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1268,6 +1268,22 @@
         <v>494</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1279,7 +1295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2115,6 +2131,22 @@
         <v>7097</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2126,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2962,6 +2994,22 @@
         <v>2491</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2973,7 +3021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,6 +3857,22 @@
         <v>1351</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,7 +1281,55 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2144,7 +2192,55 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>7260</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7339</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7134</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7081</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3007,7 +3103,55 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2867</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +3165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,7 +4014,55 @@
         <v>45968</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1333</v>
       </c>
     </row>
   </sheetData>

--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,6 +1332,14 @@
         <v>513</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>503</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1343,7 +1351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2243,6 +2251,14 @@
         <v>7081</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2254,7 +2270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3154,6 +3170,14 @@
         <v>2867</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3165,7 +3189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4065,6 +4089,14 @@
         <v>1333</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1340,6 +1340,14 @@
         <v>503</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1351,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2259,6 +2267,14 @@
         <v>3332</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2270,7 +2286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,6 +3194,14 @@
         <v>2747</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2808</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3189,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4097,6 +4121,14 @@
         <v>1293</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1348,6 +1348,14 @@
         <v>499</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1359,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2275,6 +2283,14 @@
         <v>3355</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2286,7 +2302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3202,6 +3218,14 @@
         <v>2808</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2917</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3213,7 +3237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4129,6 +4153,14 @@
         <v>1224</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,6 +1356,14 @@
         <v>504</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1367,7 +1375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,6 +2299,14 @@
         <v>3368</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2302,7 +2318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3226,6 +3242,14 @@
         <v>2917</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3237,7 +3261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,6 +4185,14 @@
         <v>1250</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1086</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1364,6 +1364,22 @@
         <v>499</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1375,7 +1391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2307,6 +2323,22 @@
         <v>3321</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2318,7 +2350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3250,6 +3282,22 @@
         <v>2846</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3261,7 +3309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4193,6 +4241,22 @@
         <v>1086</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1380,6 +1380,14 @@
         <v>481</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1391,7 +1399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2339,6 +2347,14 @@
         <v>3404</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2350,7 +2366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3298,6 +3314,14 @@
         <v>2814</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2811</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3309,7 +3333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4281,14 @@
         <v>1127</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,6 +1388,22 @@
         <v>483</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1399,7 +1415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2355,6 +2371,22 @@
         <v>3433</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2366,7 +2398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3322,6 +3354,22 @@
         <v>2811</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3333,7 +3381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4289,6 +4337,22 @@
         <v>1177</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/r_list_7.xlsx
+++ b/r_list_7.xlsx
@@ -1401,7 +1401,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2384,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>3723</v>
       </c>
     </row>
   </sheetData>
@@ -3367,7 +3367,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>2843</v>
       </c>
     </row>
   </sheetData>
@@ -4350,7 +4350,7 @@
         <v>45989</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1304</v>
       </c>
     </row>
   </sheetData>
